--- a/biology/Botanique/Lychnis_fleur_de_coucou/Lychnis_fleur_de_coucou.xlsx
+++ b/biology/Botanique/Lychnis_fleur_de_coucou/Lychnis_fleur_de_coucou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silene flos-cuculi
 Silene flos-cuculi, traditionnellement appelé la Lychnide fleur de coucou, œillet des prés ou œil-de-perdrix, est une espèce de plante herbacée vivace de la famille des Caryophyllaceae.
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lychnis flos-cuculi L.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce devrait son nom flos-cuculi à sa période de floraison, quand le coucou commence à chanter. La dénomination de genre Lychnis signifierait « lampe » car une espèce voisine - la coquelourde des jardins - servait à faire des mèches pour les lampes à huile.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce de plante érigée, aux feuilles et fleurs fines. Souvent ramifiée, feuilles basales pétiolées, oblongues, aux feuilles caulinaires lancéolées. Les fleurs présentent un calice tubuleux à 10 nervures et 5 pointes. On observe 5 pétales divisés en 4 fines lanières, dont 2 principales et 2 plus fines. 10 étamines, 5 styles. Le fruit est une capsule à 5 valves. La floraison a lieu de mai à août.
 </t>
@@ -605,9 +623,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prairies humides, marécages, tourbières, tout lieu humide jusqu'à 2 000 m d'altitude[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prairies humides, marécages, tourbières, tout lieu humide jusqu'à 2 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Commune dans toute l’Europe, elle tend toutefois à disparaître en même temps que les zones humides reculent.
 </t>
